--- a/data/twitterkaartjes.xlsx
+++ b/data/twitterkaartjes.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="A1L" sheetId="1" r:id="rId1"/>
+    <sheet name="A4(D)-A76-A2" sheetId="1" r:id="rId1"/>
+    <sheet name="A2-A76-A4(D)" sheetId="2" r:id="rId2"/>
+    <sheet name="A16-E19(B)" sheetId="4" r:id="rId3"/>
+    <sheet name="E19(B)-A16" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="22">
   <si>
     <t>route</t>
   </si>
@@ -78,6 +81,18 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>A74</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
 </sst>
 </file>
@@ -401,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
@@ -582,4 +597,519 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50.892651000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.6913939999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50.900775000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.6910740000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>51.267265000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.4470229999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>51.264221999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.4196289999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>51.266226000000003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.443289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>51.256525000000003</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.428159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/twitterkaartjes.xlsx
+++ b/data/twitterkaartjes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A4(D)-A76-A2" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
@@ -426,8 +426,8 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -790,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -954,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F6"/>
     </sheetView>
   </sheetViews>
